--- a/diagnostico/Gráficos/itens_destacados_diagnostico.xlsx
+++ b/diagnostico/Gráficos/itens_destacados_diagnostico.xlsx
@@ -8,22 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://smeprefeituraspgov.sharepoint.com/sites/upge/Shared Documents/1.2 Planejamento/1.2.1 Planejamento Estratégico/Diagnóstico/Relatório/Gráficos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_75796A80D3F8D75ECF1A3211595ED87656CC2913" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8292DDC-B5DE-4DCB-8057-4FED31C1AD13}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_5A665994153C7F18A8A6064A3C2186D36DC624E2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1477421F-0B96-43D2-9D87-6509A05194B5}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="75" yWindow="4290" windowWidth="16410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Itens Destacados" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Itens Destacados'!$A$1:$F$123</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="107">
   <si>
     <t>Local</t>
   </si>
@@ -217,9 +214,6 @@
     <t>Ampliação do quadro de Auxiliares Técnicos de Educação (ATEs)</t>
   </si>
   <si>
-    <t>Aumento da oferta de formações específicas para professores/as da educação especial e em Libras na perspectiva da educação inclusiva e da educação bilíngue para surdos</t>
-  </si>
-  <si>
     <t>Ampliação da acessibilidade na infraestrutura nas unidades educacionais</t>
   </si>
   <si>
@@ -317,6 +311,9 @@
   </si>
   <si>
     <t>Fortalecimento das políticas, programas e projetos intersecretariais</t>
+  </si>
+  <si>
+    <t>Fortalecimento das políticas para implementação da educação de gênero e diversidade</t>
   </si>
   <si>
     <t>SME</t>
@@ -706,14 +703,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F123"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCellId="1" sqref="A12:F15 A1:F1"/>
+      <selection activeCell="D122" sqref="D4:D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -737,222 +736,222 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>53.1</v>
+        <v>53.09</v>
       </c>
       <c r="E2">
-        <v>36.04</v>
+        <v>62.8</v>
       </c>
       <c r="F2">
-        <v>17.059999999999999</v>
+        <v>-9.7100000000000009</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>55.75</v>
+        <v>58.68</v>
       </c>
       <c r="E3">
-        <v>39.58</v>
+        <v>69.03</v>
       </c>
       <c r="F3">
-        <v>16.18</v>
+        <v>-10.36</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>36.28</v>
+        <v>52.07</v>
       </c>
       <c r="E4">
-        <v>24.06</v>
+        <v>62.8</v>
       </c>
       <c r="F4">
-        <v>12.22</v>
+        <v>-10.73</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>53.98</v>
+        <v>70.91</v>
       </c>
       <c r="E5">
-        <v>43.06</v>
+        <v>62.8</v>
       </c>
       <c r="F5">
-        <v>10.92</v>
+        <v>8.11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>30.97</v>
+        <v>29.05</v>
       </c>
       <c r="E6">
-        <v>20.9</v>
+        <v>43.76</v>
       </c>
       <c r="F6">
-        <v>10.07</v>
+        <v>-14.71</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>59.29</v>
+        <v>59.68</v>
       </c>
       <c r="E7">
-        <v>49.81</v>
+        <v>69.03</v>
       </c>
       <c r="F7">
-        <v>9.48</v>
+        <v>-9.36</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>25.66</v>
+        <v>55.34</v>
       </c>
       <c r="E8">
-        <v>16.28</v>
+        <v>43.76</v>
       </c>
       <c r="F8">
-        <v>9.39</v>
+        <v>11.58</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>54.87</v>
+        <v>74</v>
       </c>
       <c r="E9">
-        <v>46.33</v>
+        <v>62.8</v>
       </c>
       <c r="F9">
-        <v>8.5399999999999991</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>30.09</v>
+        <v>34.950000000000003</v>
       </c>
       <c r="E10">
-        <v>21.56</v>
+        <v>44.2</v>
       </c>
       <c r="F10">
-        <v>8.5299999999999994</v>
+        <v>-9.25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>77.88</v>
+        <v>59.81</v>
       </c>
       <c r="E11">
-        <v>69.73</v>
+        <v>69.03</v>
       </c>
       <c r="F11">
-        <v>8.14</v>
+        <v>-9.2200000000000006</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>17.7</v>
+        <v>26.45</v>
       </c>
       <c r="E12">
-        <v>25.75</v>
+        <v>17.25</v>
       </c>
       <c r="F12">
-        <v>-8.0500000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -960,19 +959,19 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>35.4</v>
+        <v>59.65</v>
       </c>
       <c r="E13">
-        <v>44.47</v>
+        <v>49.84</v>
       </c>
       <c r="F13">
-        <v>-9.08</v>
+        <v>9.81</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -983,16 +982,16 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>5.31</v>
+        <v>29.82</v>
       </c>
       <c r="E14">
-        <v>14.43</v>
+        <v>21.53</v>
       </c>
       <c r="F14">
-        <v>-9.1199999999999992</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1000,119 +999,119 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>38.049999999999997</v>
+        <v>5.26</v>
       </c>
       <c r="E15">
-        <v>47.36</v>
+        <v>14.43</v>
       </c>
       <c r="F15">
-        <v>-9.31</v>
+        <v>-9.16</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>38.840000000000003</v>
+        <v>29.84</v>
       </c>
       <c r="E16">
-        <v>27.87</v>
+        <v>41.92</v>
       </c>
       <c r="F16">
-        <v>10.97</v>
+        <v>-12.08</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>26.45</v>
+        <v>59.22</v>
       </c>
       <c r="E17">
-        <v>17.2</v>
+        <v>49.84</v>
       </c>
       <c r="F17">
-        <v>9.24</v>
+        <v>9.39</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>23.14</v>
+        <v>7.63</v>
       </c>
       <c r="E18">
-        <v>14.26</v>
+        <v>16.21</v>
       </c>
       <c r="F18">
-        <v>8.8800000000000008</v>
+        <v>-8.58</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>39.67</v>
+        <v>56.79</v>
       </c>
       <c r="E19">
-        <v>31.08</v>
+        <v>47.51</v>
       </c>
       <c r="F19">
-        <v>8.59</v>
+        <v>9.2799999999999994</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="D20">
-        <v>26.45</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="E20">
-        <v>35.380000000000003</v>
+        <v>18.66</v>
       </c>
       <c r="F20">
-        <v>-8.94</v>
+        <v>-8.7799999999999994</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1120,319 +1119,319 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>58.68</v>
+        <v>29.75</v>
       </c>
       <c r="E21">
-        <v>68.97</v>
+        <v>42.41</v>
       </c>
       <c r="F21">
-        <v>-10.29</v>
+        <v>-12.66</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="D22">
-        <v>22.31</v>
+        <v>53.51</v>
       </c>
       <c r="E22">
-        <v>32.93</v>
+        <v>36.119999999999997</v>
       </c>
       <c r="F22">
-        <v>-10.62</v>
+        <v>17.39</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>52.07</v>
+        <v>38.6</v>
       </c>
       <c r="E23">
-        <v>62.71</v>
+        <v>47.51</v>
       </c>
       <c r="F23">
-        <v>-10.64</v>
+        <v>-8.91</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="D24">
-        <v>22.31</v>
+        <v>50</v>
       </c>
       <c r="E24">
-        <v>33.32</v>
+        <v>38.29</v>
       </c>
       <c r="F24">
-        <v>-11</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D25">
-        <v>47.93</v>
+        <v>58.02</v>
       </c>
       <c r="E25">
-        <v>59.55</v>
+        <v>47.51</v>
       </c>
       <c r="F25">
-        <v>-11.62</v>
+        <v>10.51</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D26">
-        <v>29.75</v>
+        <v>28.7</v>
       </c>
       <c r="E26">
-        <v>42.35</v>
+        <v>38.29</v>
       </c>
       <c r="F26">
-        <v>-12.6</v>
+        <v>-9.58</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27">
-        <v>50</v>
+        <v>27.18</v>
       </c>
       <c r="E27">
-        <v>38.32</v>
+        <v>36.119999999999997</v>
       </c>
       <c r="F27">
-        <v>11.68</v>
+        <v>-8.93</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>59.68</v>
+        <v>26.17</v>
       </c>
       <c r="E28">
-        <v>68.97</v>
+        <v>15.84</v>
       </c>
       <c r="F28">
-        <v>-9.2899999999999991</v>
+        <v>10.33</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D29">
-        <v>16.13</v>
+        <v>47.93</v>
       </c>
       <c r="E29">
-        <v>25.91</v>
+        <v>59.65</v>
       </c>
       <c r="F29">
-        <v>-9.7799999999999994</v>
+        <v>-11.72</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D30">
-        <v>16.940000000000001</v>
+        <v>54.65</v>
       </c>
       <c r="E30">
-        <v>27.6</v>
+        <v>44.79</v>
       </c>
       <c r="F30">
-        <v>-10.66</v>
+        <v>9.86</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D31">
-        <v>14.52</v>
+        <v>53.49</v>
       </c>
       <c r="E31">
-        <v>25.97</v>
+        <v>44.52</v>
       </c>
       <c r="F31">
-        <v>-11.45</v>
+        <v>8.9700000000000006</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D32">
-        <v>29.84</v>
+        <v>33.11</v>
       </c>
       <c r="E32">
-        <v>41.86</v>
+        <v>44.79</v>
       </c>
       <c r="F32">
-        <v>-12.02</v>
+        <v>-11.69</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="D33">
-        <v>44.66</v>
+        <v>35.96</v>
       </c>
       <c r="E33">
-        <v>27.87</v>
+        <v>44.52</v>
       </c>
       <c r="F33">
-        <v>16.79</v>
+        <v>-8.56</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D34">
-        <v>42.72</v>
+        <v>35.880000000000003</v>
       </c>
       <c r="E34">
-        <v>32.01</v>
+        <v>44.79</v>
       </c>
       <c r="F34">
-        <v>10.71</v>
+        <v>-8.92</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="D35">
-        <v>41.75</v>
+        <v>68</v>
       </c>
       <c r="E35">
-        <v>32.61</v>
+        <v>59.65</v>
       </c>
       <c r="F35">
-        <v>9.14</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="D36">
-        <v>33.01</v>
+        <v>25</v>
       </c>
       <c r="E36">
-        <v>24.22</v>
+        <v>14.37</v>
       </c>
       <c r="F36">
-        <v>8.7899999999999991</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1440,19 +1439,19 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="D37">
-        <v>42.72</v>
+        <v>67.959999999999994</v>
       </c>
       <c r="E37">
-        <v>34.020000000000003</v>
+        <v>59.65</v>
       </c>
       <c r="F37">
-        <v>8.6999999999999993</v>
+        <v>8.31</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1463,96 +1462,96 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D38">
-        <v>67.959999999999994</v>
+        <v>31.07</v>
       </c>
       <c r="E38">
-        <v>59.55</v>
+        <v>41.59</v>
       </c>
       <c r="F38">
-        <v>8.41</v>
+        <v>-10.53</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="D39">
-        <v>24.27</v>
+        <v>51.4</v>
       </c>
       <c r="E39">
-        <v>32.93</v>
+        <v>59.65</v>
       </c>
       <c r="F39">
-        <v>-8.66</v>
+        <v>-8.25</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D40">
-        <v>27.18</v>
+        <v>32.71</v>
       </c>
       <c r="E40">
-        <v>36.04</v>
+        <v>44.52</v>
       </c>
       <c r="F40">
-        <v>-8.85</v>
+        <v>-11.81</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D41">
-        <v>34.950000000000003</v>
+        <v>23.14</v>
       </c>
       <c r="E41">
-        <v>44.2</v>
+        <v>14.26</v>
       </c>
       <c r="F41">
-        <v>-9.25</v>
+        <v>8.8800000000000008</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D42">
-        <v>31.07</v>
+        <v>48.84</v>
       </c>
       <c r="E42">
-        <v>41.64</v>
+        <v>38.56</v>
       </c>
       <c r="F42">
-        <v>-10.58</v>
+        <v>10.28</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1560,259 +1559,259 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="D43">
-        <v>34.880000000000003</v>
+        <v>27.91</v>
       </c>
       <c r="E43">
-        <v>20.9</v>
+        <v>17.62</v>
       </c>
       <c r="F43">
-        <v>13.98</v>
+        <v>10.28</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="D44">
-        <v>44.19</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="E44">
-        <v>32.5</v>
+        <v>27.55</v>
       </c>
       <c r="F44">
-        <v>11.69</v>
+        <v>-10.61</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="D45">
-        <v>44.19</v>
+        <v>48.6</v>
       </c>
       <c r="E45">
-        <v>33.479999999999997</v>
+        <v>39.26</v>
       </c>
       <c r="F45">
-        <v>10.71</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D46">
-        <v>27.91</v>
+        <v>34.57</v>
       </c>
       <c r="E46">
-        <v>17.420000000000002</v>
+        <v>47.02</v>
       </c>
       <c r="F46">
-        <v>10.49</v>
+        <v>-12.45</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D47">
-        <v>48.84</v>
+        <v>33.33</v>
       </c>
       <c r="E47">
-        <v>38.54</v>
+        <v>44.96</v>
       </c>
       <c r="F47">
-        <v>10.3</v>
+        <v>-11.62</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="D48">
-        <v>43.02</v>
+        <v>30.86</v>
       </c>
       <c r="E48">
-        <v>32.93</v>
+        <v>20.34</v>
       </c>
       <c r="F48">
-        <v>10.09</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D49">
-        <v>54.65</v>
+        <v>78.069999999999993</v>
       </c>
       <c r="E49">
-        <v>44.8</v>
+        <v>69.739999999999995</v>
       </c>
       <c r="F49">
-        <v>9.85</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D50">
-        <v>53.49</v>
+        <v>33.01</v>
       </c>
       <c r="E50">
-        <v>44.47</v>
+        <v>22.18</v>
       </c>
       <c r="F50">
-        <v>9.01</v>
+        <v>10.83</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D51">
-        <v>22.09</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="E51">
-        <v>13.12</v>
+        <v>28.09</v>
       </c>
       <c r="F51">
-        <v>8.9700000000000006</v>
+        <v>-9.01</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="D52">
-        <v>36.049999999999997</v>
+        <v>53.51</v>
       </c>
       <c r="E52">
-        <v>27.87</v>
+        <v>43.06</v>
       </c>
       <c r="F52">
-        <v>8.17</v>
+        <v>10.45</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="D53">
-        <v>23.26</v>
+        <v>55.34</v>
       </c>
       <c r="E53">
-        <v>32.83</v>
+        <v>43.06</v>
       </c>
       <c r="F53">
-        <v>-9.57</v>
+        <v>12.28</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D54">
-        <v>34.880000000000003</v>
+        <v>42.72</v>
       </c>
       <c r="E54">
-        <v>46.33</v>
+        <v>32.1</v>
       </c>
       <c r="F54">
-        <v>-11.44</v>
+        <v>10.61</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D55">
-        <v>30.86</v>
+        <v>23.36</v>
       </c>
       <c r="E55">
-        <v>20.25</v>
+        <v>32.1</v>
       </c>
       <c r="F55">
-        <v>10.61</v>
+        <v>-8.74</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1829,10 +1828,10 @@
         <v>46.91</v>
       </c>
       <c r="E56">
-        <v>37.130000000000003</v>
+        <v>37.15</v>
       </c>
       <c r="F56">
-        <v>9.7899999999999991</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1840,259 +1839,259 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D57">
-        <v>56.79</v>
+        <v>34.57</v>
       </c>
       <c r="E57">
-        <v>47.36</v>
+        <v>46.37</v>
       </c>
       <c r="F57">
-        <v>9.43</v>
+        <v>-11.8</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D58">
-        <v>18.52</v>
+        <v>34.880000000000003</v>
       </c>
       <c r="E58">
-        <v>10.02</v>
+        <v>46.37</v>
       </c>
       <c r="F58">
-        <v>8.5</v>
+        <v>-11.48</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D59">
-        <v>9.8800000000000008</v>
+        <v>56.14</v>
       </c>
       <c r="E59">
-        <v>18.670000000000002</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="F59">
-        <v>-8.8000000000000007</v>
+        <v>16.440000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D60">
-        <v>53.09</v>
+        <v>54.39</v>
       </c>
       <c r="E60">
-        <v>62.71</v>
+        <v>46.37</v>
       </c>
       <c r="F60">
-        <v>-9.6199999999999992</v>
+        <v>8.02</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="D61">
-        <v>12.35</v>
+        <v>14.52</v>
       </c>
       <c r="E61">
-        <v>22.1</v>
+        <v>25.92</v>
       </c>
       <c r="F61">
-        <v>-9.76</v>
+        <v>-11.41</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="D62">
-        <v>13.58</v>
+        <v>54.96</v>
       </c>
       <c r="E62">
-        <v>24.06</v>
+        <v>46.37</v>
       </c>
       <c r="F62">
-        <v>-10.48</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B63" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D63">
-        <v>33.33</v>
+        <v>35.11</v>
       </c>
       <c r="E63">
-        <v>44.91</v>
+        <v>25.92</v>
       </c>
       <c r="F63">
-        <v>-11.58</v>
+        <v>9.19</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B64" t="s">
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D64">
-        <v>34.57</v>
+        <v>13.74</v>
       </c>
       <c r="E64">
-        <v>46.33</v>
+        <v>22.67</v>
       </c>
       <c r="F64">
-        <v>-11.76</v>
+        <v>-8.93</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D65">
-        <v>34.57</v>
+        <v>34</v>
       </c>
       <c r="E65">
-        <v>46.98</v>
+        <v>25.92</v>
       </c>
       <c r="F65">
-        <v>-12.41</v>
+        <v>8.08</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B66" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="C66" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="D66">
-        <v>34.58</v>
+        <v>12.15</v>
       </c>
       <c r="E66">
-        <v>24.06</v>
+        <v>22.67</v>
       </c>
       <c r="F66">
-        <v>10.52</v>
+        <v>-10.52</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D67">
-        <v>23.36</v>
+        <v>16.13</v>
       </c>
       <c r="E67">
-        <v>14.7</v>
+        <v>25.87</v>
       </c>
       <c r="F67">
-        <v>8.67</v>
+        <v>-9.74</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D68">
-        <v>27.1</v>
+        <v>29</v>
       </c>
       <c r="E68">
-        <v>18.78</v>
+        <v>7.05</v>
       </c>
       <c r="F68">
-        <v>8.32</v>
+        <v>21.95</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="D69">
-        <v>31.78</v>
+        <v>11</v>
       </c>
       <c r="E69">
-        <v>40.119999999999997</v>
+        <v>21.2</v>
       </c>
       <c r="F69">
-        <v>-8.34</v>
+        <v>-10.199999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2100,99 +2099,99 @@
         <v>35</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D70">
-        <v>28.97</v>
+        <v>26.85</v>
       </c>
       <c r="E70">
-        <v>38.32</v>
+        <v>18.82</v>
       </c>
       <c r="F70">
-        <v>-9.35</v>
+        <v>8.0299999999999994</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" t="s">
         <v>72</v>
       </c>
-      <c r="C71" t="s">
-        <v>75</v>
-      </c>
       <c r="D71">
-        <v>42.99</v>
+        <v>34.880000000000003</v>
       </c>
       <c r="E71">
-        <v>53.73</v>
+        <v>21.04</v>
       </c>
       <c r="F71">
-        <v>-10.74</v>
+        <v>13.84</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B72" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D72">
-        <v>55.34</v>
+        <v>22.09</v>
       </c>
       <c r="E72">
-        <v>43.06</v>
+        <v>13.07</v>
       </c>
       <c r="F72">
-        <v>12.28</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="D73">
-        <v>55.34</v>
+        <v>41.89</v>
       </c>
       <c r="E73">
-        <v>43.77</v>
+        <v>53.74</v>
       </c>
       <c r="F73">
-        <v>11.57</v>
+        <v>-11.85</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C74" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D74">
-        <v>33.01</v>
+        <v>31.58</v>
       </c>
       <c r="E74">
-        <v>22.16</v>
+        <v>21.04</v>
       </c>
       <c r="F74">
-        <v>10.85</v>
+        <v>10.54</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2200,79 +2199,79 @@
         <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="D75">
-        <v>59.22</v>
+        <v>12.62</v>
       </c>
       <c r="E75">
-        <v>49.81</v>
+        <v>21.04</v>
       </c>
       <c r="F75">
-        <v>9.41</v>
+        <v>-8.42</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C76" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D76">
-        <v>12.62</v>
+        <v>63.36</v>
       </c>
       <c r="E76">
-        <v>20.9</v>
+        <v>53.74</v>
       </c>
       <c r="F76">
-        <v>-8.2799999999999994</v>
+        <v>9.6199999999999992</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C77" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D77">
-        <v>24.27</v>
+        <v>63</v>
       </c>
       <c r="E77">
-        <v>32.93</v>
+        <v>53.74</v>
       </c>
       <c r="F77">
-        <v>-8.66</v>
+        <v>9.26</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C78" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D78">
-        <v>25.24</v>
+        <v>31</v>
       </c>
       <c r="E78">
-        <v>34.020000000000003</v>
+        <v>39.1</v>
       </c>
       <c r="F78">
-        <v>-8.7799999999999994</v>
+        <v>-8.1</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2280,907 +2279,1118 @@
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C79" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D79">
-        <v>29.29</v>
+        <v>28</v>
       </c>
       <c r="E79">
-        <v>7.02</v>
+        <v>16.59</v>
       </c>
       <c r="F79">
-        <v>22.27</v>
+        <v>11.41</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D80">
-        <v>73.739999999999995</v>
+        <v>43.52</v>
       </c>
       <c r="E80">
-        <v>62.71</v>
+        <v>53.74</v>
       </c>
       <c r="F80">
-        <v>11.03</v>
+        <v>-10.220000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B81" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C81" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="D81">
-        <v>25.25</v>
+        <v>23.15</v>
       </c>
       <c r="E81">
-        <v>14.32</v>
+        <v>14.64</v>
       </c>
       <c r="F81">
-        <v>10.94</v>
+        <v>8.51</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C82" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D82">
-        <v>27.27</v>
+        <v>33.01</v>
       </c>
       <c r="E82">
-        <v>16.600000000000001</v>
+        <v>24.3</v>
       </c>
       <c r="F82">
-        <v>10.67</v>
+        <v>8.7100000000000009</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B83" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C83" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D83">
-        <v>63.64</v>
+        <v>33.64</v>
       </c>
       <c r="E83">
-        <v>53.73</v>
+        <v>24.02</v>
       </c>
       <c r="F83">
-        <v>9.91</v>
+        <v>9.6199999999999992</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C84" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D84">
-        <v>34.340000000000003</v>
+        <v>18.52</v>
       </c>
       <c r="E84">
-        <v>25.97</v>
+        <v>10.09</v>
       </c>
       <c r="F84">
-        <v>8.3800000000000008</v>
+        <v>8.43</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D85">
-        <v>30.3</v>
+        <v>40</v>
       </c>
       <c r="E85">
-        <v>22.1</v>
+        <v>32</v>
       </c>
       <c r="F85">
-        <v>8.1999999999999993</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="C86" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="D86">
-        <v>67.680000000000007</v>
+        <v>23.64</v>
       </c>
       <c r="E86">
-        <v>59.55</v>
+        <v>32.54</v>
       </c>
       <c r="F86">
-        <v>8.1199999999999992</v>
+        <v>-8.9</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B87" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="C87" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="D87">
-        <v>36.36</v>
+        <v>44.19</v>
       </c>
       <c r="E87">
-        <v>44.47</v>
+        <v>33.51</v>
       </c>
       <c r="F87">
-        <v>-8.11</v>
+        <v>10.67</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B88" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C88" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="D88">
-        <v>33.33</v>
+        <v>23.26</v>
       </c>
       <c r="E88">
-        <v>41.86</v>
+        <v>32.86</v>
       </c>
       <c r="F88">
-        <v>-8.5299999999999994</v>
+        <v>-9.61</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C89" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D89">
-        <v>30.3</v>
+        <v>25.24</v>
       </c>
       <c r="E89">
-        <v>39.090000000000003</v>
+        <v>34.06</v>
       </c>
       <c r="F89">
-        <v>-8.7799999999999994</v>
+        <v>-8.81</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B90" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C90" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D90">
-        <v>11.11</v>
+        <v>43.51</v>
       </c>
       <c r="E90">
-        <v>21.23</v>
+        <v>32.54</v>
       </c>
       <c r="F90">
-        <v>-10.119999999999999</v>
+        <v>10.97</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B91" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C91" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D91">
-        <v>30.41</v>
+        <v>42.72</v>
       </c>
       <c r="E91">
-        <v>38.869999999999997</v>
+        <v>34.06</v>
       </c>
       <c r="F91">
-        <v>-8.4600000000000009</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B92" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C92" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D92">
-        <v>22.3</v>
+        <v>41.75</v>
       </c>
       <c r="E92">
-        <v>32.5</v>
+        <v>32.54</v>
       </c>
       <c r="F92">
-        <v>-10.199999999999999</v>
+        <v>9.2100000000000009</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B93" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="C93" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D93">
-        <v>33.11</v>
+        <v>24.3</v>
       </c>
       <c r="E93">
-        <v>44.8</v>
+        <v>33.51</v>
       </c>
       <c r="F93">
-        <v>-11.69</v>
+        <v>-9.2200000000000006</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C94" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D94">
-        <v>41.89</v>
+        <v>12.35</v>
       </c>
       <c r="E94">
-        <v>53.73</v>
+        <v>22.13</v>
       </c>
       <c r="F94">
-        <v>-11.84</v>
+        <v>-9.7799999999999994</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="D95">
-        <v>29.05</v>
+        <v>39.67</v>
       </c>
       <c r="E95">
-        <v>43.77</v>
+        <v>31.18</v>
       </c>
       <c r="F95">
-        <v>-14.71</v>
+        <v>8.49</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C96" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D96">
-        <v>43.85</v>
+        <v>26.45</v>
       </c>
       <c r="E96">
-        <v>32.61</v>
+        <v>35.36</v>
       </c>
       <c r="F96">
-        <v>11.24</v>
+        <v>-8.91</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="C97" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="D97">
-        <v>57.69</v>
+        <v>22.31</v>
       </c>
       <c r="E97">
-        <v>47.36</v>
+        <v>32.86</v>
       </c>
       <c r="F97">
-        <v>10.33</v>
+        <v>-10.55</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B98" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C98" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D98">
-        <v>63.85</v>
+        <v>44.19</v>
       </c>
       <c r="E98">
-        <v>53.73</v>
+        <v>32.43</v>
       </c>
       <c r="F98">
-        <v>10.119999999999999</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B99" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C99" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="D99">
-        <v>35.380000000000003</v>
+        <v>43.02</v>
       </c>
       <c r="E99">
-        <v>25.97</v>
+        <v>32.86</v>
       </c>
       <c r="F99">
-        <v>9.42</v>
+        <v>10.16</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C100" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D100">
-        <v>34.619999999999997</v>
+        <v>22.3</v>
       </c>
       <c r="E100">
-        <v>26.24</v>
+        <v>32.43</v>
       </c>
       <c r="F100">
-        <v>8.3800000000000008</v>
+        <v>-10.130000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B101" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C101" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="D101">
-        <v>54.62</v>
+        <v>14.04</v>
       </c>
       <c r="E101">
-        <v>46.33</v>
+        <v>22.13</v>
       </c>
       <c r="F101">
-        <v>8.2899999999999991</v>
+        <v>-8.09</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="D102">
-        <v>7.69</v>
+        <v>24.27</v>
       </c>
       <c r="E102">
-        <v>16.22</v>
+        <v>32.86</v>
       </c>
       <c r="F102">
-        <v>-8.5299999999999994</v>
+        <v>-8.59</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B103" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="C103" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="D103">
-        <v>36.15</v>
+        <v>24.27</v>
       </c>
       <c r="E103">
-        <v>44.8</v>
+        <v>32.86</v>
       </c>
       <c r="F103">
-        <v>-8.65</v>
+        <v>-8.59</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B104" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C104" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="D104">
-        <v>13.85</v>
+        <v>37.380000000000003</v>
       </c>
       <c r="E104">
-        <v>22.7</v>
+        <v>26.52</v>
       </c>
       <c r="F104">
-        <v>-8.85</v>
+        <v>10.86</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B105" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C105" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="D105">
-        <v>19.23</v>
+        <v>24.3</v>
       </c>
       <c r="E105">
-        <v>28.14</v>
+        <v>32.43</v>
       </c>
       <c r="F105">
-        <v>-8.91</v>
+        <v>-8.1300000000000008</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C106" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D106">
-        <v>37.380000000000003</v>
+        <v>22.31</v>
       </c>
       <c r="E106">
-        <v>26.4</v>
+        <v>33.35</v>
       </c>
       <c r="F106">
-        <v>10.98</v>
+        <v>-11.04</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B107" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C107" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D107">
-        <v>49.53</v>
+        <v>35.11</v>
       </c>
       <c r="E107">
-        <v>38.869999999999997</v>
+        <v>26.36</v>
       </c>
       <c r="F107">
-        <v>10.66</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B108" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="C108" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="D108">
-        <v>26.17</v>
+        <v>13.89</v>
       </c>
       <c r="E108">
-        <v>15.9</v>
+        <v>21.91</v>
       </c>
       <c r="F108">
-        <v>10.27</v>
+        <v>-8.02</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B109" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C109" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D109">
-        <v>33.64</v>
+        <v>50</v>
       </c>
       <c r="E109">
-        <v>24.06</v>
+        <v>41.05</v>
       </c>
       <c r="F109">
-        <v>9.58</v>
+        <v>8.9499999999999993</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B110" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="C110" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="D110">
-        <v>48.6</v>
+        <v>17.89</v>
       </c>
       <c r="E110">
-        <v>39.25</v>
+        <v>27.82</v>
       </c>
       <c r="F110">
-        <v>9.35</v>
+        <v>-9.93</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="C111" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="D111">
-        <v>51.4</v>
+        <v>13.58</v>
       </c>
       <c r="E111">
-        <v>59.55</v>
+        <v>24.13</v>
       </c>
       <c r="F111">
-        <v>-8.15</v>
+        <v>-10.55</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C112" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D112">
-        <v>24.3</v>
+        <v>38.840000000000003</v>
       </c>
       <c r="E112">
-        <v>32.5</v>
+        <v>27.82</v>
       </c>
       <c r="F112">
-        <v>-8.1999999999999993</v>
+        <v>11.02</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="C113" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="D113">
-        <v>23.36</v>
+        <v>21.82</v>
       </c>
       <c r="E113">
-        <v>32.01</v>
+        <v>30.37</v>
       </c>
       <c r="F113">
-        <v>-8.64</v>
+        <v>-8.5500000000000007</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C114" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="D114">
-        <v>59.81</v>
+        <v>36.049999999999997</v>
       </c>
       <c r="E114">
-        <v>68.97</v>
+        <v>27.82</v>
       </c>
       <c r="F114">
-        <v>-9.16</v>
+        <v>8.23</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C115" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D115">
-        <v>24.3</v>
+        <v>30.41</v>
       </c>
       <c r="E115">
-        <v>33.479999999999997</v>
+        <v>38.880000000000003</v>
       </c>
       <c r="F115">
-        <v>-9.18</v>
+        <v>-8.48</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B116" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="C116" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="D116">
-        <v>12.15</v>
+        <v>36.840000000000003</v>
       </c>
       <c r="E116">
-        <v>22.7</v>
+        <v>24.13</v>
       </c>
       <c r="F116">
-        <v>-10.55</v>
+        <v>12.71</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B117" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="C117" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="D117">
-        <v>32.71</v>
+        <v>25.44</v>
       </c>
       <c r="E117">
-        <v>44.47</v>
+        <v>16.32</v>
       </c>
       <c r="F117">
-        <v>-11.76</v>
+        <v>9.1199999999999992</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D118">
-        <v>71.56</v>
+        <v>34.26</v>
       </c>
       <c r="E118">
-        <v>62.71</v>
+        <v>24.13</v>
       </c>
       <c r="F118">
-        <v>8.85</v>
+        <v>10.130000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B119" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C119" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="D119">
-        <v>40.369999999999997</v>
+        <v>31.48</v>
       </c>
       <c r="E119">
-        <v>31.95</v>
+        <v>40.08</v>
       </c>
       <c r="F119">
-        <v>8.41</v>
+        <v>-8.59</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B120" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C120" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D120">
-        <v>23.85</v>
+        <v>44.66</v>
       </c>
       <c r="E120">
-        <v>32.61</v>
+        <v>27.82</v>
       </c>
       <c r="F120">
-        <v>-8.75</v>
+        <v>16.84</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B121" t="s">
         <v>99</v>
       </c>
       <c r="C121" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D121">
-        <v>21.1</v>
+        <v>49.53</v>
       </c>
       <c r="E121">
-        <v>30.43</v>
+        <v>38.880000000000003</v>
       </c>
       <c r="F121">
-        <v>-9.33</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>98</v>
-      </c>
-      <c r="B122" t="s">
-        <v>99</v>
-      </c>
-      <c r="C122" t="s">
-        <v>100</v>
-      </c>
-      <c r="D122">
-        <v>50</v>
-      </c>
-      <c r="E122">
-        <v>40.99</v>
-      </c>
-      <c r="F122">
-        <v>9.01</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>98</v>
-      </c>
-      <c r="B123" t="s">
-        <v>99</v>
-      </c>
-      <c r="C123" t="s">
-        <v>101</v>
-      </c>
-      <c r="D123">
-        <v>17.98</v>
-      </c>
-      <c r="E123">
-        <v>27.87</v>
-      </c>
-      <c r="F123">
-        <v>-9.89</v>
+        <v>10.65</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F123" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F123">
-      <sortCondition ref="A1:A123"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c4e080b4-70b0-4c85-8981-2750bee268b3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7737b104-dd2c-4966-8ee1-5901bfa51b5d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA88B3EA7690C54D8979504D0B454D27" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b42b1996479af9227517a4bada2e2d91">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7737b104-dd2c-4966-8ee1-5901bfa51b5d" xmlns:ns3="c4e080b4-70b0-4c85-8981-2750bee268b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6911ab93168ed9a9fc5c798482291b3e" ns2:_="" ns3:_="">
+    <xsd:import namespace="7737b104-dd2c-4966-8ee1-5901bfa51b5d"/>
+    <xsd:import namespace="c4e080b4-70b0-4c85-8981-2750bee268b3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7737b104-dd2c-4966-8ee1-5901bfa51b5d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="4e235577-fc96-4be5-bc73-d4be570dd0d1" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="19" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="21" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c4e080b4-70b0-4c85-8981-2750bee268b3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{9e164ece-1c7c-4987-9965-47f4172a026f}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="c4e080b4-70b0-4c85-8981-2750bee268b3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BE6A2A7-D3D3-4CCB-9FFD-EB4263F2279B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c4e080b4-70b0-4c85-8981-2750bee268b3"/>
+    <ds:schemaRef ds:uri="7737b104-dd2c-4966-8ee1-5901bfa51b5d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69761BBA-CFE2-46A8-9B03-6CCC5933D044}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B2DC273-B2FC-41CA-9F53-52D11F6BC919}"/>
 </file>